--- a/CRM/亂數訂單.xlsx
+++ b/CRM/亂數訂單.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="710" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="訂單金額" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="146">
   <si>
     <t>顧客編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,11 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -945,55 +944,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>470</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="E2" s="7">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
       <c r="C3">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>470</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>470</v>
-      </c>
-      <c r="E4" t="s">
-        <v>105</v>
+        <v>500</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43059</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>7</v>
@@ -1002,21 +1001,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>470</v>
-      </c>
-      <c r="E5" t="s">
-        <v>119</v>
+        <v>500</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>9</v>
@@ -1027,19 +1026,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>470</v>
       </c>
-      <c r="E6" t="s">
-        <v>64</v>
+      <c r="E6" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
@@ -1048,21 +1047,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>470</v>
-      </c>
-      <c r="E7" t="s">
-        <v>98</v>
+        <v>500</v>
+      </c>
+      <c r="E7" s="7">
+        <v>42963</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
@@ -1071,21 +1070,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>470</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
+        <v>530</v>
+      </c>
+      <c r="E8" s="7">
+        <v>43064</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>12</v>
@@ -1094,21 +1093,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>470</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>13</v>
@@ -1117,21 +1116,21 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>470</v>
       </c>
-      <c r="E10" t="s">
-        <v>63</v>
+      <c r="E10" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>14</v>
@@ -1140,55 +1139,55 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11">
+      <c r="D11">
+        <v>530</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="D11">
-        <v>470</v>
-      </c>
-      <c r="E11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>470</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
       <c r="C13">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>470</v>
       </c>
-      <c r="E13" t="s">
-        <v>55</v>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>15</v>
@@ -1197,21 +1196,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>17</v>
@@ -1220,21 +1219,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>18</v>
@@ -1243,21 +1242,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>19</v>
@@ -1266,21 +1265,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>470</v>
       </c>
-      <c r="E17" t="s">
-        <v>44</v>
+      <c r="E17" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>20</v>
@@ -1289,55 +1288,55 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>480</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>21</v>
@@ -1346,21 +1345,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>23</v>
@@ -1369,21 +1368,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>24</v>
@@ -1392,21 +1391,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>470</v>
       </c>
-      <c r="E23" t="s">
-        <v>56</v>
+      <c r="E23" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>25</v>
@@ -1415,21 +1414,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D24">
-        <v>470</v>
-      </c>
-      <c r="E24" t="s">
-        <v>75</v>
+        <v>480</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>26</v>
@@ -1438,21 +1437,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25">
-        <v>31</v>
-      </c>
       <c r="D25">
-        <v>480</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
+        <v>470</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>27</v>
@@ -1463,19 +1462,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <v>470</v>
       </c>
-      <c r="E26" t="s">
-        <v>51</v>
+      <c r="E26" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>28</v>
@@ -1486,19 +1485,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
       </c>
       <c r="C27">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>470</v>
-      </c>
-      <c r="E27" t="s">
-        <v>88</v>
+        <v>500</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>29</v>
@@ -1507,21 +1506,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>30</v>
@@ -1532,449 +1531,449 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>530</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>530</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29">
-        <v>45</v>
-      </c>
-      <c r="D29">
-        <v>470</v>
-      </c>
-      <c r="E29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30">
-        <v>61</v>
-      </c>
-      <c r="D30">
-        <v>470</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31">
-        <v>61</v>
-      </c>
       <c r="D31">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>470</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>500</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C33">
-        <v>57</v>
-      </c>
-      <c r="D33">
+      <c r="C34">
+        <v>45</v>
+      </c>
+      <c r="D34">
         <v>470</v>
       </c>
-      <c r="E33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="E34" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>62</v>
+      </c>
+      <c r="D35">
+        <v>480</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>500</v>
+      </c>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37">
         <v>24</v>
       </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <v>19</v>
-      </c>
-      <c r="D34">
-        <v>530</v>
-      </c>
-      <c r="E34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D37">
+        <v>480</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="C35">
-        <v>57</v>
-      </c>
-      <c r="D35">
-        <v>470</v>
-      </c>
-      <c r="E35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>83</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36">
-        <v>65</v>
-      </c>
-      <c r="D36">
-        <v>470</v>
-      </c>
-      <c r="E36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37">
-        <v>65</v>
-      </c>
-      <c r="D37">
-        <v>470</v>
-      </c>
-      <c r="E37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>57</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
       <c r="C38">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>480</v>
-      </c>
-      <c r="E38" t="s">
-        <v>104</v>
+        <v>500</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D39">
         <v>480</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D40">
         <v>470</v>
       </c>
-      <c r="E40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>470</v>
-      </c>
-      <c r="E41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D42">
+        <v>500</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>34</v>
+      </c>
+      <c r="D43">
         <v>470</v>
       </c>
-      <c r="E42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>12</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44">
+        <v>58</v>
+      </c>
+      <c r="D44">
+        <v>470</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
         <v>34</v>
       </c>
-      <c r="C43">
-        <v>39</v>
-      </c>
-      <c r="D43">
-        <v>500</v>
-      </c>
-      <c r="E43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44">
-        <v>37</v>
-      </c>
-      <c r="D44">
-        <v>500</v>
-      </c>
-      <c r="E44" s="7">
-        <v>43059</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>85</v>
-      </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
       <c r="C45">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D45">
         <v>470</v>
       </c>
-      <c r="E45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46">
         <v>52</v>
       </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46">
-        <v>32</v>
-      </c>
       <c r="D46">
+        <v>470</v>
+      </c>
+      <c r="E46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>19</v>
+      </c>
+      <c r="D47">
         <v>500</v>
       </c>
-      <c r="E46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47">
-        <v>34</v>
-      </c>
-      <c r="D47">
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48">
+        <v>61</v>
+      </c>
+      <c r="D48">
+        <v>480</v>
+      </c>
+      <c r="E48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
         <v>530</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50">
+        <v>28</v>
+      </c>
+      <c r="D50">
+        <v>470</v>
+      </c>
+      <c r="E50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48">
-        <v>34</v>
-      </c>
-      <c r="D48">
-        <v>530</v>
-      </c>
-      <c r="E48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49">
-        <v>26</v>
-      </c>
-      <c r="D49">
-        <v>480</v>
-      </c>
-      <c r="E49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50">
-        <v>38</v>
-      </c>
-      <c r="D50">
-        <v>530</v>
-      </c>
-      <c r="E50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>87</v>
       </c>
       <c r="B51" t="s">
         <v>34</v>
       </c>
       <c r="C51">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D51">
         <v>470</v>
       </c>
-      <c r="E51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C52">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D52">
-        <v>470</v>
-      </c>
-      <c r="E52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D53">
-        <v>470</v>
-      </c>
-      <c r="E53" t="s">
-        <v>101</v>
+        <v>500</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
         <v>34</v>
       </c>
       <c r="C54">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>480</v>
-      </c>
-      <c r="E54" t="s">
-        <v>36</v>
+        <v>470</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
         <v>34</v>
@@ -1983,355 +1982,355 @@
         <v>46</v>
       </c>
       <c r="D55">
-        <v>480</v>
-      </c>
-      <c r="E55" s="7">
-        <v>42819</v>
+        <v>530</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C56">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D56">
-        <v>500</v>
-      </c>
-      <c r="E56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C57">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D57">
         <v>470</v>
       </c>
       <c r="E57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D58">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59">
+        <v>34</v>
+      </c>
+      <c r="D59">
+        <v>470</v>
+      </c>
+      <c r="E59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>480</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>91</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61">
+        <v>27</v>
+      </c>
+      <c r="D61">
+        <v>530</v>
+      </c>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62">
+        <v>62</v>
+      </c>
+      <c r="D62">
+        <v>530</v>
+      </c>
+      <c r="E62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63">
+        <v>34</v>
+      </c>
+      <c r="D63">
+        <v>530</v>
+      </c>
+      <c r="E63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>70</v>
       </c>
-      <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59">
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64">
         <v>44</v>
       </c>
-      <c r="D59">
+      <c r="D64">
         <v>500</v>
       </c>
-      <c r="E59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>53</v>
-      </c>
-      <c r="B60" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60">
-        <v>37</v>
-      </c>
-      <c r="D60">
-        <v>530</v>
-      </c>
-      <c r="E60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>73</v>
-      </c>
-      <c r="B61" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61">
-        <v>24</v>
-      </c>
-      <c r="D61">
-        <v>480</v>
-      </c>
-      <c r="E61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>73</v>
-      </c>
-      <c r="B62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62">
-        <v>24</v>
-      </c>
-      <c r="D62">
-        <v>480</v>
-      </c>
-      <c r="E62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>16</v>
-      </c>
-      <c r="B63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63">
-        <v>61</v>
-      </c>
-      <c r="D63">
-        <v>480</v>
-      </c>
-      <c r="E63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>16</v>
-      </c>
-      <c r="B64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64">
-        <v>61</v>
-      </c>
-      <c r="D64">
-        <v>480</v>
-      </c>
       <c r="E64" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
         <v>32</v>
       </c>
       <c r="C65">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D65">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="E65" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
         <v>32</v>
       </c>
       <c r="C66">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="E66" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C67">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D67">
-        <v>530</v>
-      </c>
-      <c r="E67" s="7">
-        <v>42766</v>
+        <v>470</v>
+      </c>
+      <c r="E67" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68">
         <v>34</v>
       </c>
-      <c r="C68">
-        <v>46</v>
-      </c>
       <c r="D68">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>32</v>
       </c>
       <c r="C69">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D69">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C70">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D70">
         <v>500</v>
       </c>
       <c r="E70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
         <v>32</v>
       </c>
       <c r="C71">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D71">
         <v>500</v>
       </c>
       <c r="E71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
         <v>32</v>
       </c>
       <c r="C72">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D72">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="E72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
         <v>32</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D73">
         <v>500</v>
       </c>
       <c r="E73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
       </c>
       <c r="C74">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D74">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
         <v>32</v>
       </c>
       <c r="C75">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D75">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="E75" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
         <v>32</v>
@@ -2340,49 +2339,49 @@
         <v>62</v>
       </c>
       <c r="D76">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="E76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
         <v>32</v>
       </c>
       <c r="C77">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D77">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
         <v>32</v>
       </c>
       <c r="C78">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D78">
         <v>480</v>
       </c>
       <c r="E78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
         <v>34</v>
@@ -2391,398 +2390,387 @@
         <v>65</v>
       </c>
       <c r="D79">
+        <v>470</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80">
+        <v>65</v>
+      </c>
+      <c r="D80">
+        <v>470</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81">
+        <v>62</v>
+      </c>
+      <c r="D81">
         <v>480</v>
       </c>
-      <c r="E79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>36</v>
-      </c>
-      <c r="B80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80">
-        <v>58</v>
-      </c>
-      <c r="D80">
-        <v>500</v>
-      </c>
-      <c r="E80" s="7">
-        <v>42963</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>4</v>
-      </c>
-      <c r="B81" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81">
-        <v>27</v>
-      </c>
-      <c r="D81">
-        <v>530</v>
-      </c>
       <c r="E81" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C82">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D82">
-        <v>500</v>
-      </c>
-      <c r="E82" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C83">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D83">
-        <v>500</v>
-      </c>
-      <c r="E83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" t="s">
         <v>32</v>
       </c>
       <c r="C84">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D84">
         <v>500</v>
       </c>
       <c r="E84" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C85">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D85">
-        <v>500</v>
-      </c>
-      <c r="E85" t="s">
-        <v>118</v>
+        <v>480</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B86" t="s">
         <v>34</v>
       </c>
       <c r="C86">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D86">
-        <v>530</v>
-      </c>
-      <c r="E86" t="s">
-        <v>72</v>
+        <v>470</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C87">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D87">
-        <v>530</v>
-      </c>
-      <c r="E87" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B88" t="s">
         <v>32</v>
       </c>
       <c r="C88">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D88">
         <v>530</v>
       </c>
       <c r="E88" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s">
         <v>32</v>
       </c>
       <c r="C89">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D89">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="E89" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C90">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D90">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C91">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D91">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C92">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D92">
         <v>500</v>
       </c>
       <c r="E92" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C93">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D93">
-        <v>530</v>
-      </c>
-      <c r="E93" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C94">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D94">
-        <v>530</v>
-      </c>
-      <c r="E94" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C95">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D95">
         <v>530</v>
       </c>
-      <c r="E95" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E95" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C96">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D96">
-        <v>530</v>
-      </c>
-      <c r="E96" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C97">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D97">
-        <v>530</v>
-      </c>
-      <c r="E97" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C98">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D98">
-        <v>530</v>
-      </c>
-      <c r="E98" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C99">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D99">
-        <v>530</v>
-      </c>
-      <c r="E99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C100">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D100">
-        <v>530</v>
-      </c>
-      <c r="E100" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B101" t="s">
         <v>34</v>
       </c>
       <c r="C101">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D101">
-        <v>530</v>
-      </c>
-      <c r="E101" t="s">
-        <v>112</v>
+        <v>470</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E101">
-    <filterColumn colId="2">
-      <customFilters and="1">
-        <customFilter operator="greaterThanOrEqual" val="40"/>
-        <customFilter operator="lessThanOrEqual" val="50"/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A6:E87">
-      <sortCondition ref="D1:D101"/>
-    </sortState>
-  </autoFilter>
   <sortState ref="A2:E101">
     <sortCondition ref="A2:A101"/>
   </sortState>
@@ -4535,7 +4523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
